--- a/testData/output_test.xlsx
+++ b/testData/output_test.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662CB994-B2AC-3945-8ACE-EA90BD836C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4529B397-31C4-DF40-99F2-7E0FE24BD419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16220" yWindow="-10560" windowWidth="19200" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>供應商</t>
   </si>
@@ -164,26 +167,54 @@
   </si>
   <si>
     <t>拆三条空运其余船运</t>
+  </si>
+  <si>
+    <t>TAC00083840</t>
+  </si>
+  <si>
+    <t>Acetate#UN-0139 170x1400X6.0/1.88</t>
+  </si>
+  <si>
+    <t>SC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAC11154940</t>
+  </si>
+  <si>
+    <t>Acetate#UF2-0290 膠板料170x700x6.0/0.92</t>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急走9月15日空運</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAC00066440</t>
+  </si>
+  <si>
+    <t>Acetate#UG-8940 膠板料170x700x4.0/0.62</t>
+  </si>
+  <si>
+    <t>TAC11187850</t>
+  </si>
+  <si>
+    <t>Acetate#UN-0041 170x1400x8.0/2.52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -194,103 +225,21 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF9C0006"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -299,60 +248,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -665,17 +617,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
     <col min="7" max="7" width="31.5" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
@@ -684,316 +639,391 @@
     <col min="17" max="17" width="42.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2">
         <v>13.5</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3">
         <v>18.399999999999999</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4">
         <v>1.3</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5">
         <v>7.02</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="D6" s="3" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6">
         <v>15.28</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="D7" s="4" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7">
         <v>3.8</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8">
         <v>1.8</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="15"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9">
         <v>2.6</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="D10" s="3" t="s">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10">
         <v>36.299999999999997</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="D11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11">
         <v>37.9</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="14"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="D12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12">
         <v>1.9</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="D13" s="4" t="s">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13">
         <v>2.6</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="14"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="D14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14">
         <v>7.89</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="D15" s="3" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15">
         <v>22.71</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="D16" s="4" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16">
         <v>27</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="14"/>
-    </row>
-    <row r="17" spans="4:17">
-      <c r="D17" s="4" t="s">
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17">
         <v>8.9</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18">
+        <v>16.95</v>
+      </c>
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>1.85</v>
+      </c>
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20">
+        <v>1.83</v>
+      </c>
+      <c r="M20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21">
+        <v>412.65</v>
+      </c>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22">
+        <v>0.65</v>
+      </c>
+      <c r="M22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23">
+        <v>74.959999999999994</v>
+      </c>
+      <c r="M23" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-  </conditionalFormatting>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1004,9 +1034,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1017,9 +1047,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData/output_test.xlsx
+++ b/testData/output_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4529B397-31C4-DF40-99F2-7E0FE24BD419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA072C4-D601-9341-9000-2EC9FE110192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16220" yWindow="-10560" windowWidth="19200" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,68 +256,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">

--- a/testData/output_test.xlsx
+++ b/testData/output_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA072C4-D601-9341-9000-2EC9FE110192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A63A5D-D50A-3942-8A20-51712949A4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16220" yWindow="-10560" windowWidth="19200" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -556,12 +556,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,7 +572,7 @@
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="6.83203125" customWidth="1"/>
     <col min="7" max="7" width="31.5" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" hidden="1" customWidth="1"/>
     <col min="14" max="16" width="0" hidden="1" customWidth="1"/>
@@ -631,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>16</v>
       </c>
@@ -648,7 +649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>16</v>
       </c>
@@ -665,7 +666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>17</v>
       </c>
@@ -679,7 +680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>18</v>
       </c>
@@ -696,7 +697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>18</v>
       </c>
@@ -713,7 +714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>19</v>
       </c>
@@ -727,7 +728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>20</v>
       </c>
@@ -741,7 +742,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>21</v>
       </c>
@@ -755,7 +756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>22</v>
       </c>
@@ -769,7 +770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>22</v>
       </c>
@@ -783,7 +784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>22</v>
       </c>
@@ -811,7 +812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>24</v>
       </c>
@@ -828,7 +829,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>24</v>
       </c>
@@ -845,7 +846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>25</v>
       </c>
@@ -859,7 +860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>26</v>
       </c>
@@ -873,7 +874,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>43</v>
       </c>
@@ -887,7 +888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>43</v>
       </c>
@@ -901,7 +902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>43</v>
       </c>
@@ -915,7 +916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>46</v>
       </c>
@@ -932,7 +933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>50</v>
       </c>
@@ -946,7 +947,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>52</v>
       </c>
@@ -961,7 +962,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q23" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="TAC11181440"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/output_test.xlsx
+++ b/testData/output_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A63A5D-D50A-3942-8A20-51712949A4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEC0E49-6BEB-5C49-8BAA-7233210BAE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16220" yWindow="-10560" windowWidth="19200" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>供應商</t>
   </si>
@@ -191,18 +191,6 @@
   <si>
     <t>急走9月15日空運</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAC00066440</t>
-  </si>
-  <si>
-    <t>Acetate#UG-8940 膠板料170x700x4.0/0.62</t>
-  </si>
-  <si>
-    <t>TAC11187850</t>
-  </si>
-  <si>
-    <t>Acetate#UN-0041 170x1400x8.0/2.52</t>
   </si>
 </sst>
 </file>
@@ -557,12 +545,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,7 +786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>23</v>
       </c>
@@ -933,39 +921,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22">
-        <v>0.65</v>
-      </c>
-      <c r="M22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23">
-        <v>74.959999999999994</v>
-      </c>
-      <c r="M23" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q23" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:Q21" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="TAC11181440"/>
+        <filter val="TAC00066440"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/testData/output_test.xlsx
+++ b/testData/output_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEC0E49-6BEB-5C49-8BAA-7233210BAE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061D7073-522D-0E4B-9201-8040F04C5E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16220" yWindow="-10560" windowWidth="19200" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>供應商</t>
   </si>
@@ -176,20 +176,6 @@
   </si>
   <si>
     <t>SC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAC11154940</t>
-  </si>
-  <si>
-    <t>Acetate#UF2-0290 膠板料170x700x6.0/0.92</t>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急走9月15日空運</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,12 +531,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="A22:XFD22"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,7 +772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>23</v>
       </c>
@@ -848,7 +834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>26</v>
       </c>
@@ -862,7 +848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>43</v>
       </c>
@@ -876,7 +862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>43</v>
       </c>
@@ -890,7 +876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>43</v>
       </c>
@@ -904,28 +890,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="4:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21">
-        <v>412.65</v>
-      </c>
-      <c r="M21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q21" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:Q20" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="TAC00066440"/>
+        <filter val="TAC11181440"/>
       </filters>
     </filterColumn>
   </autoFilter>
